--- a/data/pca/factorExposure/factorExposure_2014-07-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.007876539018511559</v>
+        <v>0.01924048981369614</v>
       </c>
       <c r="C2">
-        <v>0.1310335195187624</v>
+        <v>-0.07198419061400731</v>
       </c>
       <c r="D2">
-        <v>0.03801986661565934</v>
+        <v>-0.03543802896903937</v>
       </c>
       <c r="E2">
-        <v>-0.2243857560329874</v>
+        <v>-0.02240094595622718</v>
       </c>
       <c r="F2">
-        <v>-0.04856073428456793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02620048753161843</v>
+      </c>
+      <c r="G2">
+        <v>0.1571071057455382</v>
+      </c>
+      <c r="H2">
+        <v>0.04069435451563431</v>
+      </c>
+      <c r="I2">
+        <v>-0.03913185607312332</v>
+      </c>
+      <c r="J2">
+        <v>0.1133009761287525</v>
+      </c>
+      <c r="K2">
+        <v>-0.05652437270981545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01458844121102308</v>
+        <v>0.01941399124561716</v>
       </c>
       <c r="C4">
-        <v>0.1706152776169018</v>
+        <v>-0.1401582329903576</v>
       </c>
       <c r="D4">
-        <v>0.04871986402681746</v>
+        <v>-0.06757220520162541</v>
       </c>
       <c r="E4">
-        <v>-0.05243899165733387</v>
+        <v>-0.01654759524389927</v>
       </c>
       <c r="F4">
-        <v>0.08993086539527304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06018283665508924</v>
+      </c>
+      <c r="G4">
+        <v>0.03118822746258519</v>
+      </c>
+      <c r="H4">
+        <v>-0.04113676656530804</v>
+      </c>
+      <c r="I4">
+        <v>-0.01439097471726228</v>
+      </c>
+      <c r="J4">
+        <v>0.09375112794862241</v>
+      </c>
+      <c r="K4">
+        <v>-0.003521680843840269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.03652986291090134</v>
+        <v>0.04074756810796953</v>
       </c>
       <c r="C6">
-        <v>0.07405186961579907</v>
+        <v>-0.08539223912617974</v>
       </c>
       <c r="D6">
-        <v>0.06369346115270522</v>
+        <v>-0.03016685052398953</v>
       </c>
       <c r="E6">
-        <v>-0.0668965507130537</v>
+        <v>0.01920010508283111</v>
       </c>
       <c r="F6">
-        <v>0.008001638241058111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01683044638583153</v>
+      </c>
+      <c r="G6">
+        <v>0.05082579063763595</v>
+      </c>
+      <c r="H6">
+        <v>-0.07171162604234396</v>
+      </c>
+      <c r="I6">
+        <v>0.03591725484399459</v>
+      </c>
+      <c r="J6">
+        <v>-0.002673738045864795</v>
+      </c>
+      <c r="K6">
+        <v>-0.05415319625142748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.02033575305967991</v>
+        <v>0.0198655046200143</v>
       </c>
       <c r="C7">
-        <v>0.08521939499845269</v>
+        <v>-0.07353820812192903</v>
       </c>
       <c r="D7">
-        <v>0.05041141974602649</v>
+        <v>-0.03457704564172777</v>
       </c>
       <c r="E7">
-        <v>-0.005363960219775026</v>
+        <v>0.01579594845186728</v>
       </c>
       <c r="F7">
-        <v>-0.004152112945520259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.004637239599249209</v>
+      </c>
+      <c r="G7">
+        <v>-0.01428921428269412</v>
+      </c>
+      <c r="H7">
+        <v>-0.02996569825140293</v>
+      </c>
+      <c r="I7">
+        <v>-0.01465601896820934</v>
+      </c>
+      <c r="J7">
+        <v>0.1034810059303943</v>
+      </c>
+      <c r="K7">
+        <v>-0.02587262593813472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.009298192485050875</v>
+        <v>0.001810973277597732</v>
       </c>
       <c r="C8">
-        <v>0.07312479904752561</v>
+        <v>-0.06151336514082036</v>
       </c>
       <c r="D8">
-        <v>0.03623867451622946</v>
+        <v>-0.04768868386101633</v>
       </c>
       <c r="E8">
-        <v>-0.06689017861143493</v>
+        <v>0.02435872751898804</v>
       </c>
       <c r="F8">
-        <v>0.02676419112747533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.03155776409232817</v>
+      </c>
+      <c r="G8">
+        <v>0.06286351121099569</v>
+      </c>
+      <c r="H8">
+        <v>-0.05115383456578869</v>
+      </c>
+      <c r="I8">
+        <v>-0.02664885040609488</v>
+      </c>
+      <c r="J8">
+        <v>0.01591812681430673</v>
+      </c>
+      <c r="K8">
+        <v>0.0130290660722573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.009915139930113614</v>
+        <v>0.01298606475981095</v>
       </c>
       <c r="C9">
-        <v>0.120582078479372</v>
+        <v>-0.09860626615755004</v>
       </c>
       <c r="D9">
-        <v>0.05767467759834582</v>
+        <v>-0.04265255119799187</v>
       </c>
       <c r="E9">
-        <v>-0.009821817788860371</v>
+        <v>-0.03036874664035902</v>
       </c>
       <c r="F9">
-        <v>0.0222257566360759</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02695853991613921</v>
+      </c>
+      <c r="G9">
+        <v>0.02137092047006313</v>
+      </c>
+      <c r="H9">
+        <v>-0.0385911112189325</v>
+      </c>
+      <c r="I9">
+        <v>-0.03550668933915267</v>
+      </c>
+      <c r="J9">
+        <v>0.09896228108156976</v>
+      </c>
+      <c r="K9">
+        <v>-0.01977898148968974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2537929508483582</v>
+        <v>0.2450031262569442</v>
       </c>
       <c r="C10">
-        <v>-0.0789229431491415</v>
+        <v>0.09641982232471963</v>
       </c>
       <c r="D10">
-        <v>-0.03143266750604617</v>
+        <v>0.008249262730676618</v>
       </c>
       <c r="E10">
-        <v>0.02996110898769361</v>
+        <v>0.04847557602771112</v>
       </c>
       <c r="F10">
-        <v>0.03370529031118977</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.001240310523578628</v>
+      </c>
+      <c r="G10">
+        <v>0.02145317158015861</v>
+      </c>
+      <c r="H10">
+        <v>-0.05656249505855921</v>
+      </c>
+      <c r="I10">
+        <v>0.01804790752541094</v>
+      </c>
+      <c r="J10">
+        <v>0.01763394603002271</v>
+      </c>
+      <c r="K10">
+        <v>0.1482228880783383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.007266500919328229</v>
+        <v>0.01752578554679579</v>
       </c>
       <c r="C11">
-        <v>0.0697746168712952</v>
+        <v>-0.07774405010225607</v>
       </c>
       <c r="D11">
-        <v>0.03420639964381875</v>
+        <v>-0.0419795035045897</v>
       </c>
       <c r="E11">
-        <v>0.02627713006717935</v>
+        <v>-0.01811205844634136</v>
       </c>
       <c r="F11">
-        <v>0.01109380377213494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.003789241265873058</v>
+      </c>
+      <c r="G11">
+        <v>-0.01135864907767198</v>
+      </c>
+      <c r="H11">
+        <v>-0.0181663594449593</v>
+      </c>
+      <c r="I11">
+        <v>-0.01546216367973776</v>
+      </c>
+      <c r="J11">
+        <v>0.02472025610756955</v>
+      </c>
+      <c r="K11">
+        <v>-0.02619781100063749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.00733961742604216</v>
+        <v>0.01697872052440021</v>
       </c>
       <c r="C12">
-        <v>0.04666946274245617</v>
+        <v>-0.05224572628854092</v>
       </c>
       <c r="D12">
-        <v>0.03611839500362033</v>
+        <v>-0.02758871397811548</v>
       </c>
       <c r="E12">
-        <v>0.02227996067782113</v>
+        <v>-0.01169637443144205</v>
       </c>
       <c r="F12">
-        <v>-0.01551107863671444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01714091151795208</v>
+      </c>
+      <c r="G12">
+        <v>0.001745882278664949</v>
+      </c>
+      <c r="H12">
+        <v>-0.03009369723173577</v>
+      </c>
+      <c r="I12">
+        <v>0.003484565359277452</v>
+      </c>
+      <c r="J12">
+        <v>0.0232848668809851</v>
+      </c>
+      <c r="K12">
+        <v>-0.01148349862428667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01316733513770463</v>
+        <v>0.006655486238621379</v>
       </c>
       <c r="C13">
-        <v>0.1263255533654709</v>
+        <v>-0.1085836235167144</v>
       </c>
       <c r="D13">
-        <v>0.07381433748185999</v>
+        <v>-0.04568167046707904</v>
       </c>
       <c r="E13">
-        <v>-0.03111478322828412</v>
+        <v>-0.01741067328761559</v>
       </c>
       <c r="F13">
-        <v>-0.06327217475681989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.022400726522866</v>
+      </c>
+      <c r="G13">
+        <v>0.1580041852741425</v>
+      </c>
+      <c r="H13">
+        <v>-0.009395299301058736</v>
+      </c>
+      <c r="I13">
+        <v>0.05929599146533359</v>
+      </c>
+      <c r="J13">
+        <v>0.2353810516929997</v>
+      </c>
+      <c r="K13">
+        <v>0.1861580333610812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.0138710265185677</v>
+        <v>0.02165324390750906</v>
       </c>
       <c r="C14">
-        <v>0.08262148551984803</v>
+        <v>-0.07398516117358114</v>
       </c>
       <c r="D14">
-        <v>0.05040221040229271</v>
+        <v>-0.04967772902840263</v>
       </c>
       <c r="E14">
-        <v>-0.01614381730649763</v>
+        <v>0.006658193205230206</v>
       </c>
       <c r="F14">
-        <v>-0.03544563151820383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.0319590657756339</v>
+      </c>
+      <c r="G14">
+        <v>0.02704314123050357</v>
+      </c>
+      <c r="H14">
+        <v>-0.1256901742168789</v>
+      </c>
+      <c r="I14">
+        <v>0.007037716306037838</v>
+      </c>
+      <c r="J14">
+        <v>0.177508177719758</v>
+      </c>
+      <c r="K14">
+        <v>-0.02006403356124812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.004608853502076531</v>
+        <v>0.00265047962050411</v>
       </c>
       <c r="C15">
-        <v>0.07947527154094061</v>
+        <v>-0.07049605575332052</v>
       </c>
       <c r="D15">
-        <v>0.03197204846788447</v>
+        <v>-0.03334358371153356</v>
       </c>
       <c r="E15">
-        <v>-0.02160339143419688</v>
+        <v>-0.01235349249071813</v>
       </c>
       <c r="F15">
-        <v>0.01211545287298776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.0371209872911386</v>
+      </c>
+      <c r="G15">
+        <v>0.01484362985364013</v>
+      </c>
+      <c r="H15">
+        <v>-0.05897995925959897</v>
+      </c>
+      <c r="I15">
+        <v>-0.01039781238068434</v>
+      </c>
+      <c r="J15">
+        <v>0.06183078164004339</v>
+      </c>
+      <c r="K15">
+        <v>-0.02378258398575032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.008075101841215545</v>
+        <v>0.01643743251234885</v>
       </c>
       <c r="C16">
-        <v>0.05576464864840334</v>
+        <v>-0.0595976277992749</v>
       </c>
       <c r="D16">
-        <v>0.0264266981809122</v>
+        <v>-0.02753395021863199</v>
       </c>
       <c r="E16">
-        <v>0.0152846622247268</v>
+        <v>-0.01159753869902099</v>
       </c>
       <c r="F16">
-        <v>0.0009379128126112782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0003546928003426081</v>
+      </c>
+      <c r="G16">
+        <v>-0.006167490378548672</v>
+      </c>
+      <c r="H16">
+        <v>-0.01364390080690597</v>
+      </c>
+      <c r="I16">
+        <v>-0.00342891584024437</v>
+      </c>
+      <c r="J16">
+        <v>0.02116044328705907</v>
+      </c>
+      <c r="K16">
+        <v>-0.0200994636910334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01181780958532117</v>
+        <v>0.01488707366341187</v>
       </c>
       <c r="C20">
-        <v>0.09275951426684922</v>
+        <v>-0.08297088261775773</v>
       </c>
       <c r="D20">
-        <v>0.03882487909711245</v>
+        <v>-0.02876171810104384</v>
       </c>
       <c r="E20">
-        <v>0.05098858964729981</v>
+        <v>0.00222071362347032</v>
       </c>
       <c r="F20">
-        <v>-0.006801938967345786</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01411869784516037</v>
+      </c>
+      <c r="G20">
+        <v>-0.02066707148254651</v>
+      </c>
+      <c r="H20">
+        <v>-0.0593956067610042</v>
+      </c>
+      <c r="I20">
+        <v>-0.008125014027017489</v>
+      </c>
+      <c r="J20">
+        <v>0.05315035345711239</v>
+      </c>
+      <c r="K20">
+        <v>-0.01538857853743537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.009295597910398393</v>
+        <v>0.01377704987020449</v>
       </c>
       <c r="C21">
-        <v>0.08476903833561966</v>
+        <v>-0.06904205636134259</v>
       </c>
       <c r="D21">
-        <v>0.006684086897485728</v>
+        <v>-0.01918680125017934</v>
       </c>
       <c r="E21">
-        <v>-0.04583639434458286</v>
+        <v>0.0224963063670975</v>
       </c>
       <c r="F21">
-        <v>-0.0802648547608714</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.06355338379251396</v>
+      </c>
+      <c r="G21">
+        <v>0.07008098930816181</v>
+      </c>
+      <c r="H21">
+        <v>-0.06107792773186512</v>
+      </c>
+      <c r="I21">
+        <v>-0.03407164984945842</v>
+      </c>
+      <c r="J21">
+        <v>0.1236763485474958</v>
+      </c>
+      <c r="K21">
+        <v>0.01524411536557025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.005638434585343331</v>
+        <v>0.007834367227601792</v>
       </c>
       <c r="C22">
-        <v>0.2341744842361214</v>
+        <v>-0.1680194397622393</v>
       </c>
       <c r="D22">
-        <v>-0.06598311083697468</v>
+        <v>-0.0251000339223923</v>
       </c>
       <c r="E22">
-        <v>-0.319612924378031</v>
+        <v>-0.008157608698814208</v>
       </c>
       <c r="F22">
-        <v>0.2824074172332859</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.3625388639639673</v>
+      </c>
+      <c r="G22">
+        <v>0.3652421649195813</v>
+      </c>
+      <c r="H22">
+        <v>0.2433124762409157</v>
+      </c>
+      <c r="I22">
+        <v>0.1481210880760099</v>
+      </c>
+      <c r="J22">
+        <v>-0.2101070858099255</v>
+      </c>
+      <c r="K22">
+        <v>-0.0151094469604051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.006533749349036578</v>
+        <v>0.01295971499901871</v>
       </c>
       <c r="C23">
-        <v>0.2377741139183565</v>
+        <v>-0.1713158711448452</v>
       </c>
       <c r="D23">
-        <v>-0.070830729864478</v>
+        <v>-0.024836520639827</v>
       </c>
       <c r="E23">
-        <v>-0.3142059772253067</v>
+        <v>-0.0117137481691881</v>
       </c>
       <c r="F23">
-        <v>0.2787995442326435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3517866938007272</v>
+      </c>
+      <c r="G23">
+        <v>0.3559057263638381</v>
+      </c>
+      <c r="H23">
+        <v>0.2306757727361294</v>
+      </c>
+      <c r="I23">
+        <v>0.1383121857173824</v>
+      </c>
+      <c r="J23">
+        <v>-0.1933612761190497</v>
+      </c>
+      <c r="K23">
+        <v>-0.02002970809769042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.0064636544739992</v>
+        <v>0.01718236390640168</v>
       </c>
       <c r="C24">
-        <v>0.060807390393925</v>
+        <v>-0.06275498763471281</v>
       </c>
       <c r="D24">
-        <v>0.04503913822288919</v>
+        <v>-0.04155934462961429</v>
       </c>
       <c r="E24">
-        <v>0.02165304227526505</v>
+        <v>-0.01583518547942374</v>
       </c>
       <c r="F24">
-        <v>0.0055225180639749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.002411458489520432</v>
+      </c>
+      <c r="G24">
+        <v>-0.007490172512750681</v>
+      </c>
+      <c r="H24">
+        <v>-0.02516681601005658</v>
+      </c>
+      <c r="I24">
+        <v>-0.002969263609211155</v>
+      </c>
+      <c r="J24">
+        <v>0.03820138923408348</v>
+      </c>
+      <c r="K24">
+        <v>-0.02092824492189779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.007351204617123033</v>
+        <v>0.02124183969242578</v>
       </c>
       <c r="C25">
-        <v>0.06667352675923836</v>
+        <v>-0.06648923137497509</v>
       </c>
       <c r="D25">
-        <v>0.02425324458593935</v>
+        <v>-0.0345228826219063</v>
       </c>
       <c r="E25">
-        <v>0.02230271890915211</v>
+        <v>-0.01997275149893084</v>
       </c>
       <c r="F25">
-        <v>-0.003139635749386457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.004873449706095103</v>
+      </c>
+      <c r="G25">
+        <v>-0.005200211848989444</v>
+      </c>
+      <c r="H25">
+        <v>-0.0203819384289501</v>
+      </c>
+      <c r="I25">
+        <v>-0.009856856504439668</v>
+      </c>
+      <c r="J25">
+        <v>0.03332775586451999</v>
+      </c>
+      <c r="K25">
+        <v>-0.01018088971968199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.01073498974471687</v>
+        <v>0.0215608198100827</v>
       </c>
       <c r="C26">
-        <v>0.04400056878199349</v>
+        <v>-0.05279200017216023</v>
       </c>
       <c r="D26">
-        <v>0.07530515074426888</v>
+        <v>-0.06157158099880919</v>
       </c>
       <c r="E26">
-        <v>0.01741152301864379</v>
+        <v>-0.01125533147019445</v>
       </c>
       <c r="F26">
-        <v>-0.03731037275638086</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.003923584231976477</v>
+      </c>
+      <c r="G26">
+        <v>-0.01282940117457043</v>
+      </c>
+      <c r="H26">
+        <v>-0.02688935554350627</v>
+      </c>
+      <c r="I26">
+        <v>-0.05073954950345464</v>
+      </c>
+      <c r="J26">
+        <v>0.1084428991637906</v>
+      </c>
+      <c r="K26">
+        <v>-0.06954116096555948</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3427901893425506</v>
+        <v>0.3061412325816354</v>
       </c>
       <c r="C28">
-        <v>-0.1033234119476948</v>
+        <v>0.1198950251229268</v>
       </c>
       <c r="D28">
-        <v>-0.03707202497725247</v>
+        <v>0.03452496773896831</v>
       </c>
       <c r="E28">
-        <v>0.01934446536374893</v>
+        <v>0.008349741844476941</v>
       </c>
       <c r="F28">
-        <v>0.01884587668241653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01715045751251859</v>
+      </c>
+      <c r="G28">
+        <v>0.04994607355086368</v>
+      </c>
+      <c r="H28">
+        <v>0.01809331744432357</v>
+      </c>
+      <c r="I28">
+        <v>-0.1059493409565946</v>
+      </c>
+      <c r="J28">
+        <v>0.01767219644139651</v>
+      </c>
+      <c r="K28">
+        <v>0.2040044516227064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.008066767175157695</v>
+        <v>0.01780494253504087</v>
       </c>
       <c r="C29">
-        <v>0.08391377443813387</v>
+        <v>-0.08146613588715235</v>
       </c>
       <c r="D29">
-        <v>0.05655422725690841</v>
+        <v>-0.04995087298546708</v>
       </c>
       <c r="E29">
-        <v>-0.002531382426558469</v>
+        <v>-0.01893629228266771</v>
       </c>
       <c r="F29">
-        <v>-0.02537370474452311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03478345206106995</v>
+      </c>
+      <c r="G29">
+        <v>0.02499348736632545</v>
+      </c>
+      <c r="H29">
+        <v>-0.1814951737380024</v>
+      </c>
+      <c r="I29">
+        <v>0.03489188107865992</v>
+      </c>
+      <c r="J29">
+        <v>0.2552108557269902</v>
+      </c>
+      <c r="K29">
+        <v>-0.004178642349953575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02578359273844133</v>
+        <v>0.03498540501359182</v>
       </c>
       <c r="C30">
-        <v>0.1649554770108609</v>
+        <v>-0.140868426229389</v>
       </c>
       <c r="D30">
-        <v>0.06959768578137619</v>
+        <v>-0.05481288816506462</v>
       </c>
       <c r="E30">
-        <v>-0.04033776948795804</v>
+        <v>0.002465810100113291</v>
       </c>
       <c r="F30">
-        <v>0.03211556593869239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04194888894306106</v>
+      </c>
+      <c r="G30">
+        <v>0.03539491200379424</v>
+      </c>
+      <c r="H30">
+        <v>-0.04876970982626199</v>
+      </c>
+      <c r="I30">
+        <v>0.006602403957612779</v>
+      </c>
+      <c r="J30">
+        <v>0.02969254211140337</v>
+      </c>
+      <c r="K30">
+        <v>-0.05989538186435318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.001969655274207157</v>
+        <v>0.01439806855759176</v>
       </c>
       <c r="C31">
-        <v>0.05225508255410466</v>
+        <v>-0.07590958069894778</v>
       </c>
       <c r="D31">
-        <v>0.03487364396228927</v>
+        <v>-0.04299884453752533</v>
       </c>
       <c r="E31">
-        <v>0.01769754801930037</v>
+        <v>-0.005748816593152254</v>
       </c>
       <c r="F31">
-        <v>-0.005440121180959294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01000762543476406</v>
+      </c>
+      <c r="G31">
+        <v>0.006653645223631933</v>
+      </c>
+      <c r="H31">
+        <v>-0.01803866100352799</v>
+      </c>
+      <c r="I31">
+        <v>-0.03655376853757875</v>
+      </c>
+      <c r="J31">
+        <v>0.02641022826770436</v>
+      </c>
+      <c r="K31">
+        <v>-0.009700986320044168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01453324319759549</v>
+        <v>0.02167679817817979</v>
       </c>
       <c r="C32">
-        <v>0.06614926899967373</v>
+        <v>-0.052637072436567</v>
       </c>
       <c r="D32">
-        <v>0.0183502756090297</v>
+        <v>-0.02820279915588407</v>
       </c>
       <c r="E32">
-        <v>-0.1480526186853997</v>
+        <v>-0.02391668985490006</v>
       </c>
       <c r="F32">
-        <v>-0.005819279040373502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.002686460011381696</v>
+      </c>
+      <c r="G32">
+        <v>0.1073048973544189</v>
+      </c>
+      <c r="H32">
+        <v>-0.04648030229936627</v>
+      </c>
+      <c r="I32">
+        <v>0.008960387193943188</v>
+      </c>
+      <c r="J32">
+        <v>0.1726931872799623</v>
+      </c>
+      <c r="K32">
+        <v>0.2299199324322508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.009928944914961751</v>
+        <v>0.0170476153571335</v>
       </c>
       <c r="C33">
-        <v>0.09563043181666121</v>
+        <v>-0.09975615718445868</v>
       </c>
       <c r="D33">
-        <v>0.06159529293891384</v>
+        <v>-0.05395088650194466</v>
       </c>
       <c r="E33">
-        <v>0.005516745030958899</v>
+        <v>-0.004553166771559553</v>
       </c>
       <c r="F33">
-        <v>0.002040874255030974</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0219059525417191</v>
+      </c>
+      <c r="G33">
+        <v>0.01158243292990873</v>
+      </c>
+      <c r="H33">
+        <v>-0.03478015322239021</v>
+      </c>
+      <c r="I33">
+        <v>0.003289581545196645</v>
+      </c>
+      <c r="J33">
+        <v>0.05924508498888491</v>
+      </c>
+      <c r="K33">
+        <v>0.01683936973482089</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.005163565414430724</v>
+        <v>0.01700187318001457</v>
       </c>
       <c r="C34">
-        <v>0.05048464194186361</v>
+        <v>-0.04846395219225943</v>
       </c>
       <c r="D34">
-        <v>0.02575386630934083</v>
+        <v>-0.02209979898604304</v>
       </c>
       <c r="E34">
-        <v>0.008153322125968997</v>
+        <v>-0.01777680226793842</v>
       </c>
       <c r="F34">
-        <v>-0.01867905275401249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.006023568727626077</v>
+      </c>
+      <c r="G34">
+        <v>-0.006703701420722295</v>
+      </c>
+      <c r="H34">
+        <v>-0.03158505167958649</v>
+      </c>
+      <c r="I34">
+        <v>0.00808292594583236</v>
+      </c>
+      <c r="J34">
+        <v>-0.00440622036794197</v>
+      </c>
+      <c r="K34">
+        <v>-0.01074707537989984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.00251815288326548</v>
+        <v>0.01089413897798559</v>
       </c>
       <c r="C35">
-        <v>0.03247202983230095</v>
+        <v>-0.04756894863042756</v>
       </c>
       <c r="D35">
-        <v>0.01447709067706402</v>
+        <v>-0.02337616290113359</v>
       </c>
       <c r="E35">
-        <v>-0.001328404703771118</v>
+        <v>0.005789816562801043</v>
       </c>
       <c r="F35">
-        <v>-0.00804852729556451</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.003019637187853686</v>
+      </c>
+      <c r="G35">
+        <v>0.01215170762324795</v>
+      </c>
+      <c r="H35">
+        <v>-0.0993483639892294</v>
+      </c>
+      <c r="I35">
+        <v>-0.005723830343305687</v>
+      </c>
+      <c r="J35">
+        <v>0.1237407665685796</v>
+      </c>
+      <c r="K35">
+        <v>0.01203985778800781</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.00782941942266048</v>
+        <v>0.01370814444694106</v>
       </c>
       <c r="C36">
-        <v>0.04939278844207194</v>
+        <v>-0.04533731361799575</v>
       </c>
       <c r="D36">
-        <v>0.05414103368448939</v>
+        <v>-0.0438880020040539</v>
       </c>
       <c r="E36">
-        <v>0.008740296964987361</v>
+        <v>0.006940487212693515</v>
       </c>
       <c r="F36">
-        <v>-0.007267467807104462</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01147528519142937</v>
+      </c>
+      <c r="G36">
+        <v>0.01034292032850042</v>
+      </c>
+      <c r="H36">
+        <v>-0.01972598450287926</v>
+      </c>
+      <c r="I36">
+        <v>-0.03756087148256165</v>
+      </c>
+      <c r="J36">
+        <v>0.08170272310398843</v>
+      </c>
+      <c r="K36">
+        <v>-0.02393981650260274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.0268401533612657</v>
+        <v>0.01015203928273559</v>
       </c>
       <c r="C38">
-        <v>0.04630101963250255</v>
+        <v>-0.05658320811247478</v>
       </c>
       <c r="D38">
-        <v>0.02814520736836157</v>
+        <v>-0.03796651739076919</v>
       </c>
       <c r="E38">
-        <v>0.02204405612805541</v>
+        <v>0.03567222198308689</v>
       </c>
       <c r="F38">
-        <v>-0.0003863808451072224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.03397813998429389</v>
+      </c>
+      <c r="G38">
+        <v>-0.000924585247161501</v>
+      </c>
+      <c r="H38">
+        <v>-0.04916447456419409</v>
+      </c>
+      <c r="I38">
+        <v>-0.0001809774271638025</v>
+      </c>
+      <c r="J38">
+        <v>0.07728596087941803</v>
+      </c>
+      <c r="K38">
+        <v>0.06991881123494127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.006062349787647957</v>
+        <v>0.02421704928686753</v>
       </c>
       <c r="C39">
-        <v>0.1262376370660816</v>
+        <v>-0.1270295783973608</v>
       </c>
       <c r="D39">
-        <v>0.06427748571465151</v>
+        <v>-0.06188368758005998</v>
       </c>
       <c r="E39">
-        <v>0.01205566887206985</v>
+        <v>-0.001595681907871643</v>
       </c>
       <c r="F39">
-        <v>-0.01633264617348641</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01016078950580456</v>
+      </c>
+      <c r="G39">
+        <v>-0.001570075501406429</v>
+      </c>
+      <c r="H39">
+        <v>-0.06361587793177399</v>
+      </c>
+      <c r="I39">
+        <v>0.01420288521465544</v>
+      </c>
+      <c r="J39">
+        <v>0.02008418555268222</v>
+      </c>
+      <c r="K39">
+        <v>-0.09530350731846433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.01424817183049569</v>
+        <v>0.02122812373810293</v>
       </c>
       <c r="C40">
-        <v>0.07384988467482417</v>
+        <v>-0.07418034908966474</v>
       </c>
       <c r="D40">
-        <v>0.03205121003294096</v>
+        <v>-0.03616310432195502</v>
       </c>
       <c r="E40">
-        <v>-0.03969018512698276</v>
+        <v>-0.009184946621727773</v>
       </c>
       <c r="F40">
-        <v>0.05992064024416847</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.005401178615899778</v>
+      </c>
+      <c r="G40">
+        <v>0.0240588182464439</v>
+      </c>
+      <c r="H40">
+        <v>-0.0642365297423312</v>
+      </c>
+      <c r="I40">
+        <v>0.09099116290332962</v>
+      </c>
+      <c r="J40">
+        <v>0.09112990479598163</v>
+      </c>
+      <c r="K40">
+        <v>0.03417128403101881</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01031530059461902</v>
+        <v>0.0221831248836503</v>
       </c>
       <c r="C41">
-        <v>0.02780589193079373</v>
+        <v>-0.04711083089612403</v>
       </c>
       <c r="D41">
-        <v>0.001132903308715292</v>
+        <v>-0.01634303369920129</v>
       </c>
       <c r="E41">
-        <v>0.006701540484888395</v>
+        <v>-0.004679730843262441</v>
       </c>
       <c r="F41">
-        <v>-0.002698082714938195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005817477993744494</v>
+      </c>
+      <c r="G41">
+        <v>-0.01069001209700154</v>
+      </c>
+      <c r="H41">
+        <v>-0.005364408492380448</v>
+      </c>
+      <c r="I41">
+        <v>-0.01215772087902679</v>
+      </c>
+      <c r="J41">
+        <v>0.02587594725668455</v>
+      </c>
+      <c r="K41">
+        <v>0.02898278729814563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.00604385995965979</v>
+        <v>0.01943421817459209</v>
       </c>
       <c r="C43">
-        <v>0.02876443952822067</v>
+        <v>-0.04480295511030328</v>
       </c>
       <c r="D43">
-        <v>0.02726616421769174</v>
+        <v>-0.02926897516962053</v>
       </c>
       <c r="E43">
-        <v>0.002947265315797096</v>
+        <v>0.0006475603736397658</v>
       </c>
       <c r="F43">
-        <v>0.008342593836219462</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.008404435238007006</v>
+      </c>
+      <c r="G43">
+        <v>-0.009675247977539528</v>
+      </c>
+      <c r="H43">
+        <v>-0.01457626736118676</v>
+      </c>
+      <c r="I43">
+        <v>-0.008822354839516563</v>
+      </c>
+      <c r="J43">
+        <v>0.03626799186712244</v>
+      </c>
+      <c r="K43">
+        <v>0.001214013342441921</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01269311804461017</v>
+        <v>0.01677477194942748</v>
       </c>
       <c r="C44">
-        <v>0.0985901563120704</v>
+        <v>-0.09571602165242274</v>
       </c>
       <c r="D44">
-        <v>0.04004362477352329</v>
+        <v>-0.06134875108698471</v>
       </c>
       <c r="E44">
-        <v>-0.0231721528228735</v>
+        <v>0.0169449280438206</v>
       </c>
       <c r="F44">
-        <v>0.03785754240974647</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.05714085336804794</v>
+      </c>
+      <c r="G44">
+        <v>0.03500207529882042</v>
+      </c>
+      <c r="H44">
+        <v>-0.02529122739660983</v>
+      </c>
+      <c r="I44">
+        <v>0.0357394247860113</v>
+      </c>
+      <c r="J44">
+        <v>0.0618416103115068</v>
+      </c>
+      <c r="K44">
+        <v>-0.06727898911601723</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.004113417303163095</v>
+        <v>0.005703868185450669</v>
       </c>
       <c r="C46">
-        <v>0.07009159138939529</v>
+        <v>-0.06741167654766578</v>
       </c>
       <c r="D46">
-        <v>0.06214623536347903</v>
+        <v>-0.02889466330912305</v>
       </c>
       <c r="E46">
-        <v>-0.009766179699942572</v>
+        <v>0.02144882883025515</v>
       </c>
       <c r="F46">
-        <v>-0.01351509296035116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01645909924722073</v>
+      </c>
+      <c r="G46">
+        <v>-0.0005665928431791336</v>
+      </c>
+      <c r="H46">
+        <v>-0.02571976973161863</v>
+      </c>
+      <c r="I46">
+        <v>-0.003747792222060734</v>
+      </c>
+      <c r="J46">
+        <v>0.1003016884052729</v>
+      </c>
+      <c r="K46">
+        <v>-0.01219019271757218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.008624430145395337</v>
+        <v>0.02104053178558224</v>
       </c>
       <c r="C47">
-        <v>0.05917521422357669</v>
+        <v>-0.07092797371118104</v>
       </c>
       <c r="D47">
-        <v>0.04264002492010119</v>
+        <v>-0.04936934952513018</v>
       </c>
       <c r="E47">
-        <v>0.02971352600652997</v>
+        <v>-0.02096758045187504</v>
       </c>
       <c r="F47">
-        <v>-0.04193135176027185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.003377870985519948</v>
+      </c>
+      <c r="G47">
+        <v>-0.005426808652636659</v>
+      </c>
+      <c r="H47">
+        <v>-0.02902789216504417</v>
+      </c>
+      <c r="I47">
+        <v>-0.02916281689936357</v>
+      </c>
+      <c r="J47">
+        <v>0.06137265071554664</v>
+      </c>
+      <c r="K47">
+        <v>0.01751168725933078</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.00901733224274316</v>
+        <v>0.01545975147156276</v>
       </c>
       <c r="C48">
-        <v>0.05247432414349916</v>
+        <v>-0.04480289680157586</v>
       </c>
       <c r="D48">
-        <v>0.06407146180200438</v>
+        <v>-0.0532503083153474</v>
       </c>
       <c r="E48">
-        <v>0.0243125378457929</v>
+        <v>-0.01407749789640611</v>
       </c>
       <c r="F48">
-        <v>-0.01079414864290038</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02001951760726201</v>
+      </c>
+      <c r="G48">
+        <v>0.004154938874841874</v>
+      </c>
+      <c r="H48">
+        <v>-0.02416852512211626</v>
+      </c>
+      <c r="I48">
+        <v>-0.05665013013973372</v>
+      </c>
+      <c r="J48">
+        <v>0.1077531199544998</v>
+      </c>
+      <c r="K48">
+        <v>-0.05035792645557416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02282054649802434</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.0510534671750987</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.01254076457397218</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.03001155332388134</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.03644249743837277</v>
+      </c>
+      <c r="G49">
+        <v>-0.0659996193157894</v>
+      </c>
+      <c r="H49">
+        <v>-0.0773013208111841</v>
+      </c>
+      <c r="I49">
+        <v>0.06132419526338878</v>
+      </c>
+      <c r="J49">
+        <v>-0.09515064625487832</v>
+      </c>
+      <c r="K49">
+        <v>-0.05238123209171564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.002931943697937736</v>
+        <v>0.01507636718057946</v>
       </c>
       <c r="C50">
-        <v>0.05827056039003797</v>
+        <v>-0.07437010657308474</v>
       </c>
       <c r="D50">
-        <v>0.03552216329311341</v>
+        <v>-0.03310597276824737</v>
       </c>
       <c r="E50">
-        <v>-0.00156435878924386</v>
+        <v>-0.01478000287471489</v>
       </c>
       <c r="F50">
-        <v>0.007553832514973589</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02007656632966362</v>
+      </c>
+      <c r="G50">
+        <v>0.006980613274616864</v>
+      </c>
+      <c r="H50">
+        <v>-0.04369214885073768</v>
+      </c>
+      <c r="I50">
+        <v>-0.02492249796304237</v>
+      </c>
+      <c r="J50">
+        <v>0.04456736173538357</v>
+      </c>
+      <c r="K50">
+        <v>0.04871801752561197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.003793552827417891</v>
+        <v>-0.005437414425068066</v>
       </c>
       <c r="C51">
-        <v>0.0717452286919643</v>
+        <v>-0.0341779879097763</v>
       </c>
       <c r="D51">
-        <v>0.04417386473838568</v>
+        <v>-0.0253998558423848</v>
       </c>
       <c r="E51">
-        <v>-0.03227621556199013</v>
+        <v>0.02285144245959093</v>
       </c>
       <c r="F51">
-        <v>0.01627331987452394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.00899345775969927</v>
+      </c>
+      <c r="G51">
+        <v>0.02366421753237989</v>
+      </c>
+      <c r="H51">
+        <v>-0.02960483447233908</v>
+      </c>
+      <c r="I51">
+        <v>-0.00738627282444328</v>
+      </c>
+      <c r="J51">
+        <v>0.1048806702132359</v>
+      </c>
+      <c r="K51">
+        <v>-0.02776138511152835</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03320365109436473</v>
+        <v>0.0608536751874832</v>
       </c>
       <c r="C53">
-        <v>0.0971345024472872</v>
+        <v>-0.1274047083727284</v>
       </c>
       <c r="D53">
-        <v>0.05727376075957707</v>
+        <v>-0.05926646470037623</v>
       </c>
       <c r="E53">
-        <v>0.1128634307029403</v>
+        <v>-0.02177907410583088</v>
       </c>
       <c r="F53">
-        <v>-0.02427564895377574</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0482002851822458</v>
+      </c>
+      <c r="G53">
+        <v>-0.03893096562622554</v>
+      </c>
+      <c r="H53">
+        <v>0.0446755172070215</v>
+      </c>
+      <c r="I53">
+        <v>-0.08468030877824183</v>
+      </c>
+      <c r="J53">
+        <v>-0.04766867067009974</v>
+      </c>
+      <c r="K53">
+        <v>0.02713650332774661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.00479725298259747</v>
+        <v>0.01704210834152159</v>
       </c>
       <c r="C54">
-        <v>0.07424656296917619</v>
+        <v>-0.07163346465365047</v>
       </c>
       <c r="D54">
-        <v>0.01670391640130214</v>
+        <v>-0.01347536011920742</v>
       </c>
       <c r="E54">
-        <v>0.02508729028507097</v>
+        <v>-0.01190647609514632</v>
       </c>
       <c r="F54">
-        <v>0.001999045366358961</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.001250009948303726</v>
+      </c>
+      <c r="G54">
+        <v>-0.00343000381988757</v>
+      </c>
+      <c r="H54">
+        <v>-0.0202785972447503</v>
+      </c>
+      <c r="I54">
+        <v>-0.01089623607613723</v>
+      </c>
+      <c r="J54">
+        <v>0.0573308865599747</v>
+      </c>
+      <c r="K54">
+        <v>-0.03022221678999213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01382403604776058</v>
+        <v>0.03059348412374531</v>
       </c>
       <c r="C55">
-        <v>0.06804296868330652</v>
+        <v>-0.07979046262645176</v>
       </c>
       <c r="D55">
-        <v>0.06056207686757206</v>
+        <v>-0.05483143612890839</v>
       </c>
       <c r="E55">
-        <v>0.05863505760191474</v>
+        <v>-0.02273907975707759</v>
       </c>
       <c r="F55">
-        <v>-0.0273463539714355</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02829208638160248</v>
+      </c>
+      <c r="G55">
+        <v>-0.0317124900838569</v>
+      </c>
+      <c r="H55">
+        <v>0.0204750791455732</v>
+      </c>
+      <c r="I55">
+        <v>-0.03776827954245549</v>
+      </c>
+      <c r="J55">
+        <v>-0.006148986346647563</v>
+      </c>
+      <c r="K55">
+        <v>-0.008111757437392017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01412288693040191</v>
+        <v>0.05063535558618676</v>
       </c>
       <c r="C56">
-        <v>0.1330369131263796</v>
+        <v>-0.1503273817260225</v>
       </c>
       <c r="D56">
-        <v>0.0689440534026006</v>
+        <v>-0.08452384294560408</v>
       </c>
       <c r="E56">
-        <v>0.07468469899233049</v>
+        <v>-0.0231519128497931</v>
       </c>
       <c r="F56">
-        <v>-0.03375582795383596</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09837641891332055</v>
+      </c>
+      <c r="G56">
+        <v>-0.05126979332678399</v>
+      </c>
+      <c r="H56">
+        <v>0.08316950273486316</v>
+      </c>
+      <c r="I56">
+        <v>-0.1533218498062434</v>
+      </c>
+      <c r="J56">
+        <v>-0.085377856198511</v>
+      </c>
+      <c r="K56">
+        <v>0.001860600799211686</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02556796290149299</v>
+        <v>0.01528623210707945</v>
       </c>
       <c r="C58">
-        <v>0.2699760658586307</v>
+        <v>-0.1654517270018909</v>
       </c>
       <c r="D58">
-        <v>-0.01073444022106183</v>
+        <v>-0.0480261520515279</v>
       </c>
       <c r="E58">
-        <v>-0.1916398810450372</v>
+        <v>0.08309314178543926</v>
       </c>
       <c r="F58">
-        <v>0.1971412622207752</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2212081094940929</v>
+      </c>
+      <c r="G58">
+        <v>0.2621026503186453</v>
+      </c>
+      <c r="H58">
+        <v>0.03253560747809538</v>
+      </c>
+      <c r="I58">
+        <v>-0.04944550826366608</v>
+      </c>
+      <c r="J58">
+        <v>0.142747253299799</v>
+      </c>
+      <c r="K58">
+        <v>0.04109266513839858</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2928337790679006</v>
+        <v>0.288729395084131</v>
       </c>
       <c r="C59">
-        <v>-0.002607187859516883</v>
+        <v>0.05366327146626353</v>
       </c>
       <c r="D59">
-        <v>-0.008561343679241603</v>
+        <v>0.006033230063592254</v>
       </c>
       <c r="E59">
-        <v>-0.06473239186243976</v>
+        <v>0.005171115913266287</v>
       </c>
       <c r="F59">
-        <v>-0.03623192439356342</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01596977292182229</v>
+      </c>
+      <c r="G59">
+        <v>0.0565929915496244</v>
+      </c>
+      <c r="H59">
+        <v>0.02091637772041812</v>
+      </c>
+      <c r="I59">
+        <v>0.002054119930381455</v>
+      </c>
+      <c r="J59">
+        <v>-0.005854113022730173</v>
+      </c>
+      <c r="K59">
+        <v>0.03137787889130376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1251376741223648</v>
+        <v>0.1547651898694722</v>
       </c>
       <c r="C60">
-        <v>0.1457470585030897</v>
+        <v>-0.1616407222388539</v>
       </c>
       <c r="D60">
-        <v>0.07089356237146463</v>
+        <v>-0.03882229317814306</v>
       </c>
       <c r="E60">
-        <v>0.1394793631218502</v>
+        <v>-0.0937715990020607</v>
       </c>
       <c r="F60">
-        <v>-0.2547196799947375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1200565784545952</v>
+      </c>
+      <c r="G60">
+        <v>-0.1112247976772283</v>
+      </c>
+      <c r="H60">
+        <v>0.08922635739630601</v>
+      </c>
+      <c r="I60">
+        <v>0.3070256887881601</v>
+      </c>
+      <c r="J60">
+        <v>-0.09138691512719008</v>
+      </c>
+      <c r="K60">
+        <v>-0.04388463749938918</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.006654040931167888</v>
+        <v>0.02478082617891295</v>
       </c>
       <c r="C61">
-        <v>0.08562689098143308</v>
+        <v>-0.09695243813513306</v>
       </c>
       <c r="D61">
-        <v>0.07073822312749721</v>
+        <v>-0.05481922916533332</v>
       </c>
       <c r="E61">
-        <v>0.03723974304826198</v>
+        <v>-0.01053882375242185</v>
       </c>
       <c r="F61">
-        <v>-0.03210215092328816</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01551863753232813</v>
+      </c>
+      <c r="G61">
+        <v>-0.02142627958105105</v>
+      </c>
+      <c r="H61">
+        <v>-0.05672635787579026</v>
+      </c>
+      <c r="I61">
+        <v>-0.004006441984030562</v>
+      </c>
+      <c r="J61">
+        <v>0.02607481561922612</v>
+      </c>
+      <c r="K61">
+        <v>-0.03412325473446156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.00271458640073671</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0144879394759929</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003736797709211947</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.02999242724674937</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.02269120906247192</v>
+      </c>
+      <c r="G62">
+        <v>0.005163146419750006</v>
+      </c>
+      <c r="H62">
+        <v>-0.02117537206237094</v>
+      </c>
+      <c r="I62">
+        <v>0.01274792532182916</v>
+      </c>
+      <c r="J62">
+        <v>0.01528585776773646</v>
+      </c>
+      <c r="K62">
+        <v>0.006302492357827267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0002163527509626286</v>
+        <v>0.02583938221284967</v>
       </c>
       <c r="C63">
-        <v>0.05197097866514536</v>
+        <v>-0.06064722363532509</v>
       </c>
       <c r="D63">
-        <v>0.04388610953968182</v>
+        <v>-0.06050012617779471</v>
       </c>
       <c r="E63">
-        <v>0.007388727343525751</v>
+        <v>-0.009810027251049706</v>
       </c>
       <c r="F63">
-        <v>0.006358011652906703</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.007681232114636579</v>
+      </c>
+      <c r="G63">
+        <v>-0.005144314084216004</v>
+      </c>
+      <c r="H63">
+        <v>-0.0410779367684521</v>
+      </c>
+      <c r="I63">
+        <v>-0.02993049154167136</v>
+      </c>
+      <c r="J63">
+        <v>0.04179479063732745</v>
+      </c>
+      <c r="K63">
+        <v>-0.02107289170581137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.00484826371955609</v>
+        <v>0.01805227834514584</v>
       </c>
       <c r="C64">
-        <v>0.09459335776422614</v>
+        <v>-0.09205297783115556</v>
       </c>
       <c r="D64">
-        <v>0.06921617766133469</v>
+        <v>-0.03747470273156293</v>
       </c>
       <c r="E64">
-        <v>0.01896123999546231</v>
+        <v>-0.03366441472230282</v>
       </c>
       <c r="F64">
-        <v>0.02107768808761992</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04419704525003261</v>
+      </c>
+      <c r="G64">
+        <v>0.005512466442553481</v>
+      </c>
+      <c r="H64">
+        <v>-0.03047939924764905</v>
+      </c>
+      <c r="I64">
+        <v>0.02420684953168807</v>
+      </c>
+      <c r="J64">
+        <v>0.03992241579374686</v>
+      </c>
+      <c r="K64">
+        <v>-0.08528717295165537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01610795629582943</v>
+        <v>0.03336026570800074</v>
       </c>
       <c r="C65">
-        <v>0.08553910655396993</v>
+        <v>-0.09307116490006653</v>
       </c>
       <c r="D65">
-        <v>0.02635791739402805</v>
+        <v>-0.02318830545305848</v>
       </c>
       <c r="E65">
-        <v>-0.02232156052450508</v>
+        <v>0.009830276930910672</v>
       </c>
       <c r="F65">
-        <v>-0.01062815371110183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.004914241849431325</v>
+      </c>
+      <c r="G65">
+        <v>-0.01047050376572182</v>
+      </c>
+      <c r="H65">
+        <v>-0.01837707863974394</v>
+      </c>
+      <c r="I65">
+        <v>0.08178899628481301</v>
+      </c>
+      <c r="J65">
+        <v>0.02117640629666523</v>
+      </c>
+      <c r="K65">
+        <v>-0.08408567878226096</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.000420291372363515</v>
+        <v>0.02250819858199691</v>
       </c>
       <c r="C66">
-        <v>0.1753009052009848</v>
+        <v>-0.1697526647998608</v>
       </c>
       <c r="D66">
-        <v>0.05268343912809553</v>
+        <v>-0.05487173731535994</v>
       </c>
       <c r="E66">
-        <v>-0.01202433407912856</v>
+        <v>0.003872662989890122</v>
       </c>
       <c r="F66">
-        <v>-0.01777299034639431</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01099691569429864</v>
+      </c>
+      <c r="G66">
+        <v>0.01121262770428724</v>
+      </c>
+      <c r="H66">
+        <v>-0.06806638040211109</v>
+      </c>
+      <c r="I66">
+        <v>-0.00137376007924746</v>
+      </c>
+      <c r="J66">
+        <v>0.02708883024554806</v>
+      </c>
+      <c r="K66">
+        <v>-0.0699841722691386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02855930449355806</v>
+        <v>0.01977392714357697</v>
       </c>
       <c r="C67">
-        <v>0.02437788218184038</v>
+        <v>-0.04977306678411821</v>
       </c>
       <c r="D67">
-        <v>0.04163724767798564</v>
+        <v>-0.03882649587159973</v>
       </c>
       <c r="E67">
-        <v>0.05719339844020657</v>
+        <v>0.03144941532179565</v>
       </c>
       <c r="F67">
-        <v>-0.02420247650882973</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.007827183094844509</v>
+      </c>
+      <c r="G67">
+        <v>-0.02807001770060651</v>
+      </c>
+      <c r="H67">
+        <v>-0.02714830506702777</v>
+      </c>
+      <c r="I67">
+        <v>0.03235316653304571</v>
+      </c>
+      <c r="J67">
+        <v>0.07668097778291884</v>
+      </c>
+      <c r="K67">
+        <v>0.05421655653284051</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2981651923818174</v>
+        <v>0.2927146124945072</v>
       </c>
       <c r="C68">
-        <v>-0.02778673933764115</v>
+        <v>0.08018114689247012</v>
       </c>
       <c r="D68">
-        <v>0.005111805029375696</v>
+        <v>0.02730939557502242</v>
       </c>
       <c r="E68">
-        <v>-0.02659761997166218</v>
+        <v>-0.01858220732891843</v>
       </c>
       <c r="F68">
-        <v>0.004798369166705597</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01895506380352813</v>
+      </c>
+      <c r="G68">
+        <v>0.03427446733983142</v>
+      </c>
+      <c r="H68">
+        <v>0.001199765184617416</v>
+      </c>
+      <c r="I68">
+        <v>-0.03292161074219524</v>
+      </c>
+      <c r="J68">
+        <v>0.03050723804640081</v>
+      </c>
+      <c r="K68">
+        <v>0.04246188269947857</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01051386479314294</v>
+        <v>0.0102107502636113</v>
       </c>
       <c r="C69">
-        <v>0.05558703711434673</v>
+        <v>-0.04536501986182682</v>
       </c>
       <c r="D69">
-        <v>0.04715760048752051</v>
+        <v>-0.02679911988405547</v>
       </c>
       <c r="E69">
-        <v>0.03740687188714363</v>
+        <v>0.001474347491042082</v>
       </c>
       <c r="F69">
-        <v>-0.007947448819910639</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.009953731328363094</v>
+      </c>
+      <c r="G69">
+        <v>-0.003810656316005505</v>
+      </c>
+      <c r="H69">
+        <v>-0.006843692882566288</v>
+      </c>
+      <c r="I69">
+        <v>0.008676998366923325</v>
+      </c>
+      <c r="J69">
+        <v>0.03821241078933912</v>
+      </c>
+      <c r="K69">
+        <v>0.02738102962896459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2872987062691908</v>
+        <v>0.2750042205898139</v>
       </c>
       <c r="C71">
-        <v>-0.03824917133553764</v>
+        <v>0.0797036148141575</v>
       </c>
       <c r="D71">
-        <v>-0.01020840712509038</v>
+        <v>0.02233336265102027</v>
       </c>
       <c r="E71">
-        <v>-0.02507145672177396</v>
+        <v>0.004548282394147165</v>
       </c>
       <c r="F71">
-        <v>0.0396420766439905</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04912743222886842</v>
+      </c>
+      <c r="G71">
+        <v>0.04673116738429257</v>
+      </c>
+      <c r="H71">
+        <v>0.0003979901883313046</v>
+      </c>
+      <c r="I71">
+        <v>-0.03508137938722788</v>
+      </c>
+      <c r="J71">
+        <v>0.04922068022609712</v>
+      </c>
+      <c r="K71">
+        <v>0.1142559528853209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.01758933714478248</v>
+        <v>0.05677529038914554</v>
       </c>
       <c r="C72">
-        <v>0.1417727732387858</v>
+        <v>-0.1350500746633494</v>
       </c>
       <c r="D72">
-        <v>0.07543141344785574</v>
+        <v>-0.05359499275906375</v>
       </c>
       <c r="E72">
-        <v>0.01318964810030985</v>
+        <v>-0.04788470034938641</v>
       </c>
       <c r="F72">
-        <v>0.03470628864097879</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0226756352250336</v>
+      </c>
+      <c r="G72">
+        <v>-0.02303217512080613</v>
+      </c>
+      <c r="H72">
+        <v>-0.02062706202370264</v>
+      </c>
+      <c r="I72">
+        <v>-0.02958345264309453</v>
+      </c>
+      <c r="J72">
+        <v>0.03632865078782759</v>
+      </c>
+      <c r="K72">
+        <v>-0.1116098280610807</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.09811623240923258</v>
+        <v>0.1576314607469975</v>
       </c>
       <c r="C73">
-        <v>0.1144482884867862</v>
+        <v>-0.1949849030877888</v>
       </c>
       <c r="D73">
-        <v>0.1075790098334281</v>
+        <v>-0.08034731588744481</v>
       </c>
       <c r="E73">
-        <v>0.2139310035977865</v>
+        <v>-0.05165286473619263</v>
       </c>
       <c r="F73">
-        <v>-0.2932697978644597</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1482931099201168</v>
+      </c>
+      <c r="G73">
+        <v>-0.2022798311177011</v>
+      </c>
+      <c r="H73">
+        <v>0.07151840412301412</v>
+      </c>
+      <c r="I73">
+        <v>0.4736776440502723</v>
+      </c>
+      <c r="J73">
+        <v>-0.09756845104646071</v>
+      </c>
+      <c r="K73">
+        <v>0.1078108602662484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01717722789235072</v>
+        <v>0.03878828214381588</v>
       </c>
       <c r="C74">
-        <v>0.08129094242293008</v>
+        <v>-0.09692279828437754</v>
       </c>
       <c r="D74">
-        <v>0.07288985424774154</v>
+        <v>-0.04516056700553839</v>
       </c>
       <c r="E74">
-        <v>0.06341189280408803</v>
+        <v>-0.02096103025696051</v>
       </c>
       <c r="F74">
-        <v>-0.03049853798855611</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.00739400750453776</v>
+      </c>
+      <c r="G74">
+        <v>-0.03206243686278541</v>
+      </c>
+      <c r="H74">
+        <v>0.03707041810519675</v>
+      </c>
+      <c r="I74">
+        <v>-0.05498258270814734</v>
+      </c>
+      <c r="J74">
+        <v>0.01148659552548639</v>
+      </c>
+      <c r="K74">
+        <v>-0.01718562880159963</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03363402704259427</v>
+        <v>0.06366986870914475</v>
       </c>
       <c r="C75">
-        <v>0.1348617404661995</v>
+        <v>-0.1583818317497619</v>
       </c>
       <c r="D75">
-        <v>0.05998360384519132</v>
+        <v>-0.09002405084548795</v>
       </c>
       <c r="E75">
-        <v>0.1349875272725926</v>
+        <v>-0.03459421168680406</v>
       </c>
       <c r="F75">
-        <v>-0.008784587875406943</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.0304451467667484</v>
+      </c>
+      <c r="G75">
+        <v>-0.0993649491078117</v>
+      </c>
+      <c r="H75">
+        <v>0.03460551749167245</v>
+      </c>
+      <c r="I75">
+        <v>-0.2148573653232901</v>
+      </c>
+      <c r="J75">
+        <v>-0.08760598037989259</v>
+      </c>
+      <c r="K75">
+        <v>0.1524475384958288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.008630362193782298</v>
+        <v>0.04630146892358497</v>
       </c>
       <c r="C76">
-        <v>0.103612293284818</v>
+        <v>-0.1244957572737</v>
       </c>
       <c r="D76">
-        <v>0.06386876117446712</v>
+        <v>-0.07724650818016521</v>
       </c>
       <c r="E76">
-        <v>0.0924997319353697</v>
+        <v>-0.0130493578900125</v>
       </c>
       <c r="F76">
-        <v>-0.04103309692253219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.05756577132270526</v>
+      </c>
+      <c r="G76">
+        <v>-0.0621433920003806</v>
+      </c>
+      <c r="H76">
+        <v>0.01194394698630072</v>
+      </c>
+      <c r="I76">
+        <v>-0.08843525824658462</v>
+      </c>
+      <c r="J76">
+        <v>-0.07275466315336786</v>
+      </c>
+      <c r="K76">
+        <v>-0.01527527501913525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08428182750385138</v>
+        <v>0.05582424261644943</v>
       </c>
       <c r="C77">
-        <v>0.3660201090948595</v>
+        <v>-0.413848774145868</v>
       </c>
       <c r="D77">
-        <v>-0.8596555337121761</v>
+        <v>0.8934476104879894</v>
       </c>
       <c r="E77">
-        <v>0.2399503985433758</v>
+        <v>-0.02413140947877185</v>
       </c>
       <c r="F77">
-        <v>-0.09702771012424131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.001290689921818458</v>
+      </c>
+      <c r="G77">
+        <v>-0.06094895066195927</v>
+      </c>
+      <c r="H77">
+        <v>-0.07321137883376773</v>
+      </c>
+      <c r="I77">
+        <v>-0.06865975207185497</v>
+      </c>
+      <c r="J77">
+        <v>0.0003672957356996729</v>
+      </c>
+      <c r="K77">
+        <v>0.02476971695711012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02640967247584462</v>
+        <v>0.03776013584516114</v>
       </c>
       <c r="C78">
-        <v>0.1245621452655452</v>
+        <v>-0.1120128790711639</v>
       </c>
       <c r="D78">
-        <v>0.1562707939555537</v>
+        <v>-0.092297977874837</v>
       </c>
       <c r="E78">
-        <v>-0.08347872228443178</v>
+        <v>0.0333584733155884</v>
       </c>
       <c r="F78">
-        <v>-0.08087573042954947</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.03899450224042511</v>
+      </c>
+      <c r="G78">
+        <v>0.0253346864663722</v>
+      </c>
+      <c r="H78">
+        <v>0.02163501858350794</v>
+      </c>
+      <c r="I78">
+        <v>-0.09440552869045106</v>
+      </c>
+      <c r="J78">
+        <v>0.04860025480154822</v>
+      </c>
+      <c r="K78">
+        <v>-0.1018245824907495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02222484399772844</v>
+        <v>0.05733480483771734</v>
       </c>
       <c r="C79">
-        <v>0.1490052376357588</v>
+        <v>-0.1372289661883692</v>
       </c>
       <c r="D79">
-        <v>0.1084539827374503</v>
+        <v>-0.06979111673062595</v>
       </c>
       <c r="E79">
-        <v>0.07814529356375911</v>
+        <v>-0.01779918886572926</v>
       </c>
       <c r="F79">
-        <v>-0.04058074434389546</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.05254983802735963</v>
+      </c>
+      <c r="G79">
+        <v>-0.03439769929862004</v>
+      </c>
+      <c r="H79">
+        <v>0.08539411316882885</v>
+      </c>
+      <c r="I79">
+        <v>-0.2530896725611448</v>
+      </c>
+      <c r="J79">
+        <v>-0.0335039269568186</v>
+      </c>
+      <c r="K79">
+        <v>0.05729895162897924</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.007079076387782989</v>
+        <v>0.02031593243613237</v>
       </c>
       <c r="C80">
-        <v>0.06084103579444112</v>
+        <v>-0.04551843641066896</v>
       </c>
       <c r="D80">
-        <v>0.03550905001573502</v>
+        <v>-0.0362451876890284</v>
       </c>
       <c r="E80">
-        <v>-0.03878235067771534</v>
+        <v>0.01261092286508262</v>
       </c>
       <c r="F80">
-        <v>-0.006960687809555671</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02538454661626554</v>
+      </c>
+      <c r="G80">
+        <v>0.06010191447120591</v>
+      </c>
+      <c r="H80">
+        <v>-0.00486638444460009</v>
+      </c>
+      <c r="I80">
+        <v>0.08390214920284339</v>
+      </c>
+      <c r="J80">
+        <v>-0.007566962032553596</v>
+      </c>
+      <c r="K80">
+        <v>0.02509855953081059</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.001609778331693065</v>
+        <v>0.0171336295718835</v>
       </c>
       <c r="C81">
-        <v>0.08114044783327824</v>
+        <v>-0.09709028300038719</v>
       </c>
       <c r="D81">
-        <v>0.05592101303743238</v>
+        <v>-0.05791398473088989</v>
       </c>
       <c r="E81">
-        <v>0.09163438280440296</v>
+        <v>-0.01429136895544071</v>
       </c>
       <c r="F81">
-        <v>-0.02551453116745468</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.0353151760353399</v>
+      </c>
+      <c r="G81">
+        <v>-0.02231583220430057</v>
+      </c>
+      <c r="H81">
+        <v>0.02747452855702959</v>
+      </c>
+      <c r="I81">
+        <v>-0.1252191430619898</v>
+      </c>
+      <c r="J81">
+        <v>0.01726796210696982</v>
+      </c>
+      <c r="K81">
+        <v>0.05724434274915371</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01677211381440304</v>
+        <v>0.04732889104797799</v>
       </c>
       <c r="C82">
-        <v>0.07229352637292566</v>
+        <v>-0.1050310414325071</v>
       </c>
       <c r="D82">
-        <v>0.06726959989044751</v>
+        <v>-0.06793096300182555</v>
       </c>
       <c r="E82">
-        <v>0.09172714292957561</v>
+        <v>-0.007287055936540824</v>
       </c>
       <c r="F82">
-        <v>-0.04581311955547369</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.06506668209274862</v>
+      </c>
+      <c r="G82">
+        <v>-0.04727730604087537</v>
+      </c>
+      <c r="H82">
+        <v>-0.002223329276168009</v>
+      </c>
+      <c r="I82">
+        <v>-0.08977566734229432</v>
+      </c>
+      <c r="J82">
+        <v>-0.04921953368774172</v>
+      </c>
+      <c r="K82">
+        <v>0.007086026395011385</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.01615961236789636</v>
+        <v>0.00070545763780471</v>
       </c>
       <c r="C83">
-        <v>0.008435502644231855</v>
+        <v>0.02041871961282552</v>
       </c>
       <c r="D83">
-        <v>-0.1060547616578309</v>
+        <v>0.05435467559726606</v>
       </c>
       <c r="E83">
-        <v>-0.6024700601980886</v>
+        <v>-0.05694550654067123</v>
       </c>
       <c r="F83">
-        <v>-0.6849305194850922</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.7118372020661791</v>
+      </c>
+      <c r="G83">
+        <v>0.6432403003876818</v>
+      </c>
+      <c r="H83">
+        <v>-0.02900807852021007</v>
+      </c>
+      <c r="I83">
+        <v>0.01287885758043147</v>
+      </c>
+      <c r="J83">
+        <v>-0.1208746062876667</v>
+      </c>
+      <c r="K83">
+        <v>-0.06248159199771072</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.007867127832499075</v>
+        <v>0.01445896668209801</v>
       </c>
       <c r="C84">
-        <v>0.09669713125714212</v>
+        <v>-0.06146978168379531</v>
       </c>
       <c r="D84">
-        <v>0.01637787492239857</v>
+        <v>-0.08644314377256418</v>
       </c>
       <c r="E84">
-        <v>-0.05874552612362193</v>
+        <v>0.2442652373954553</v>
       </c>
       <c r="F84">
-        <v>0.1630892008480243</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.1425822814238386</v>
+      </c>
+      <c r="G84">
+        <v>0.09650765992222078</v>
+      </c>
+      <c r="H84">
+        <v>-0.745189241961418</v>
+      </c>
+      <c r="I84">
+        <v>0.00391354935685829</v>
+      </c>
+      <c r="J84">
+        <v>-0.4990982684701269</v>
+      </c>
+      <c r="K84">
+        <v>0.1339587438522867</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.000460199596232608</v>
+        <v>0.0315017147897038</v>
       </c>
       <c r="C85">
-        <v>0.09924815851121221</v>
+        <v>-0.11232729953681</v>
       </c>
       <c r="D85">
-        <v>0.06239385188609203</v>
+        <v>-0.08222369660955443</v>
       </c>
       <c r="E85">
-        <v>0.08468900560852816</v>
+        <v>-0.01464414691329531</v>
       </c>
       <c r="F85">
-        <v>-0.0368508765623999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.08393171376102444</v>
+      </c>
+      <c r="G85">
+        <v>-0.09263324108181585</v>
+      </c>
+      <c r="H85">
+        <v>0.06192578166734064</v>
+      </c>
+      <c r="I85">
+        <v>-0.223177957648969</v>
+      </c>
+      <c r="J85">
+        <v>-0.1107458593313991</v>
+      </c>
+      <c r="K85">
+        <v>0.08409191360639057</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01642527631022528</v>
+        <v>0.01480241612123842</v>
       </c>
       <c r="C86">
-        <v>0.09359305999930374</v>
+        <v>-0.08047072713449953</v>
       </c>
       <c r="D86">
-        <v>0.0006846204964214822</v>
+        <v>-0.03783296878518185</v>
       </c>
       <c r="E86">
-        <v>-0.005297709471498923</v>
+        <v>0.04852170291753579</v>
       </c>
       <c r="F86">
-        <v>0.03578883828879287</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03914893648930712</v>
+      </c>
+      <c r="G86">
+        <v>0.07761719862657053</v>
+      </c>
+      <c r="H86">
+        <v>0.1056360199165839</v>
+      </c>
+      <c r="I86">
+        <v>-0.03528887678959751</v>
+      </c>
+      <c r="J86">
+        <v>0.04456173242679241</v>
+      </c>
+      <c r="K86">
+        <v>0.1138727964393189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.01061223756105287</v>
+        <v>0.02665502347232733</v>
       </c>
       <c r="C87">
-        <v>0.162945054988887</v>
+        <v>-0.116206859404781</v>
       </c>
       <c r="D87">
-        <v>0.03055309715546288</v>
+        <v>-0.02182656009158061</v>
       </c>
       <c r="E87">
-        <v>-0.08202394752214312</v>
+        <v>-0.03356582816062063</v>
       </c>
       <c r="F87">
-        <v>0.0895594982030351</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.03138918576511581</v>
+      </c>
+      <c r="G87">
+        <v>0.03473488536365157</v>
+      </c>
+      <c r="H87">
+        <v>-0.0264419643184703</v>
+      </c>
+      <c r="I87">
+        <v>-0.02738691805845344</v>
+      </c>
+      <c r="J87">
+        <v>0.01495118347498601</v>
+      </c>
+      <c r="K87">
+        <v>-0.08856505293340308</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.007313663076963565</v>
+        <v>0.03919809502103992</v>
       </c>
       <c r="C88">
-        <v>0.03403142019213944</v>
+        <v>-0.05945305745117077</v>
       </c>
       <c r="D88">
-        <v>0.03931032469259864</v>
+        <v>-0.03873129359512212</v>
       </c>
       <c r="E88">
-        <v>0.05116498727450988</v>
+        <v>-0.0185623101077279</v>
       </c>
       <c r="F88">
-        <v>-0.01709369053234886</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.005040233023379598</v>
+      </c>
+      <c r="G88">
+        <v>-0.02206638124088215</v>
+      </c>
+      <c r="H88">
+        <v>0.009234315817770853</v>
+      </c>
+      <c r="I88">
+        <v>0.006996164112085745</v>
+      </c>
+      <c r="J88">
+        <v>0.01988853531462009</v>
+      </c>
+      <c r="K88">
+        <v>-0.00648330434469123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4157270364756993</v>
+        <v>0.3891669009678477</v>
       </c>
       <c r="C89">
-        <v>-0.0741347242190539</v>
+        <v>0.126137564327676</v>
       </c>
       <c r="D89">
-        <v>0.08317436698478871</v>
+        <v>0.03814504064896979</v>
       </c>
       <c r="E89">
-        <v>-0.05650069784540158</v>
+        <v>-0.01898660337033326</v>
       </c>
       <c r="F89">
-        <v>0.0691987560326798</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.06554270437653553</v>
+      </c>
+      <c r="G89">
+        <v>0.008885863688035416</v>
+      </c>
+      <c r="H89">
+        <v>-0.07285976689344199</v>
+      </c>
+      <c r="I89">
+        <v>-0.007063199103275786</v>
+      </c>
+      <c r="J89">
+        <v>-0.02007060231853695</v>
+      </c>
+      <c r="K89">
+        <v>-0.7417860395318291</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3061153232466491</v>
+        <v>0.3163833583926846</v>
       </c>
       <c r="C90">
-        <v>-0.02182750583693681</v>
+        <v>0.08044397404033159</v>
       </c>
       <c r="D90">
-        <v>-0.008171402557754425</v>
+        <v>0.0226753772977417</v>
       </c>
       <c r="E90">
-        <v>-0.04378867054096807</v>
+        <v>0.009856775421151407</v>
       </c>
       <c r="F90">
-        <v>-0.01496019402945589</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01611318708499139</v>
+      </c>
+      <c r="G90">
+        <v>0.02839411026844765</v>
+      </c>
+      <c r="H90">
+        <v>-0.006781111300870918</v>
+      </c>
+      <c r="I90">
+        <v>-0.004020232219281729</v>
+      </c>
+      <c r="J90">
+        <v>0.0002448477524676286</v>
+      </c>
+      <c r="K90">
+        <v>0.1072993068610919</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02723944790718817</v>
+        <v>0.05679340146702034</v>
       </c>
       <c r="C91">
-        <v>0.07690919885806508</v>
+        <v>-0.07732376295198121</v>
       </c>
       <c r="D91">
-        <v>0.06151145047062621</v>
+        <v>-0.05569077555976608</v>
       </c>
       <c r="E91">
-        <v>0.0431193062650632</v>
+        <v>-0.02055689414573835</v>
       </c>
       <c r="F91">
-        <v>-0.05682223826109185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.06300664893767377</v>
+      </c>
+      <c r="G91">
+        <v>-0.007947924025861036</v>
+      </c>
+      <c r="H91">
+        <v>0.04844582070259724</v>
+      </c>
+      <c r="I91">
+        <v>-0.08172268665507039</v>
+      </c>
+      <c r="J91">
+        <v>-0.05268361543706197</v>
+      </c>
+      <c r="K91">
+        <v>0.01956037447985206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3743171726094035</v>
+        <v>0.3498520764030071</v>
       </c>
       <c r="C92">
-        <v>-0.05627597045270753</v>
+        <v>0.121487016011248</v>
       </c>
       <c r="D92">
-        <v>-0.01974068897447201</v>
+        <v>0.05461956471853593</v>
       </c>
       <c r="E92">
-        <v>0.02102912059159628</v>
+        <v>-0.004730579453366524</v>
       </c>
       <c r="F92">
-        <v>0.1185172529334154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.0592108478320893</v>
+      </c>
+      <c r="G92">
+        <v>0.01197136063152727</v>
+      </c>
+      <c r="H92">
+        <v>-0.01230335585532846</v>
+      </c>
+      <c r="I92">
+        <v>-0.02929817629676385</v>
+      </c>
+      <c r="J92">
+        <v>0.06411822737523977</v>
+      </c>
+      <c r="K92">
+        <v>0.1384442052462926</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3126920743072981</v>
+        <v>0.3085246925882086</v>
       </c>
       <c r="C93">
-        <v>-0.06659034670244791</v>
+        <v>0.121212903453705</v>
       </c>
       <c r="D93">
-        <v>0.007563834481806371</v>
+        <v>0.009109802813632764</v>
       </c>
       <c r="E93">
-        <v>-0.06295231608920136</v>
+        <v>0.02608729816654279</v>
       </c>
       <c r="F93">
-        <v>0.04754393444503699</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.03356583168494274</v>
+      </c>
+      <c r="G93">
+        <v>0.03786519710545364</v>
+      </c>
+      <c r="H93">
+        <v>0.01449847146979752</v>
+      </c>
+      <c r="I93">
+        <v>-0.05149322366173477</v>
+      </c>
+      <c r="J93">
+        <v>0.0213133767077126</v>
+      </c>
+      <c r="K93">
+        <v>0.1357775489001121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02358101386449628</v>
+        <v>0.08399980824580229</v>
       </c>
       <c r="C94">
-        <v>0.2014062777406457</v>
+        <v>-0.1698836859588863</v>
       </c>
       <c r="D94">
-        <v>0.09461186977776366</v>
+        <v>-0.108754107923209</v>
       </c>
       <c r="E94">
-        <v>0.1126064236411543</v>
+        <v>-0.01989481228871851</v>
       </c>
       <c r="F94">
-        <v>0.04221065244043591</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.07509666547430872</v>
+      </c>
+      <c r="G94">
+        <v>-0.07440536922193572</v>
+      </c>
+      <c r="H94">
+        <v>0.1988038118393802</v>
+      </c>
+      <c r="I94">
+        <v>-0.3936249396973304</v>
+      </c>
+      <c r="J94">
+        <v>-0.3070420327168814</v>
+      </c>
+      <c r="K94">
+        <v>-0.02949112585078418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02494052664385187</v>
+        <v>0.04302859993151399</v>
       </c>
       <c r="C95">
-        <v>0.1336390007921736</v>
+        <v>-0.1324177555016431</v>
       </c>
       <c r="D95">
-        <v>0.05687865994440747</v>
+        <v>-0.07009529128409514</v>
       </c>
       <c r="E95">
-        <v>0.1050333145776215</v>
+        <v>-0.0181722137430129</v>
       </c>
       <c r="F95">
-        <v>-0.09945344483999405</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.02075209050126645</v>
+      </c>
+      <c r="G95">
+        <v>-0.08366795937868345</v>
+      </c>
+      <c r="H95">
+        <v>-0.1122949835163193</v>
+      </c>
+      <c r="I95">
+        <v>-0.01846109253129872</v>
+      </c>
+      <c r="J95">
+        <v>-0.04328877937680013</v>
+      </c>
+      <c r="K95">
+        <v>-0.1274938743833099</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0003801437992838083</v>
+        <v>0.02349014462717305</v>
       </c>
       <c r="C97">
-        <v>-0.0005170209083035443</v>
+        <v>-0.02762733157299356</v>
       </c>
       <c r="D97">
-        <v>-0.001380734937994392</v>
+        <v>-0.002472898457549556</v>
       </c>
       <c r="E97">
-        <v>0.0008870204803329577</v>
+        <v>0.04937199729421517</v>
       </c>
       <c r="F97">
-        <v>0.003048845908306899</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.0113359736205149</v>
+      </c>
+      <c r="G97">
+        <v>-0.0175589989467083</v>
+      </c>
+      <c r="H97">
+        <v>0.0197088669706145</v>
+      </c>
+      <c r="I97">
+        <v>0.01152727193770721</v>
+      </c>
+      <c r="J97">
+        <v>0.03310779805074859</v>
+      </c>
+      <c r="K97">
+        <v>-0.0578909179393215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.09324181646909363</v>
+        <v>0.1392569870634827</v>
       </c>
       <c r="C98">
-        <v>0.1604942258441166</v>
+        <v>-0.1628168126164972</v>
       </c>
       <c r="D98">
-        <v>0.1316628473790406</v>
+        <v>-0.0895286623186099</v>
       </c>
       <c r="E98">
-        <v>0.1481590315794243</v>
+        <v>-0.07796146270476273</v>
       </c>
       <c r="F98">
-        <v>-0.1993246183869221</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1551789106883156</v>
+      </c>
+      <c r="G98">
+        <v>-0.1743260714272246</v>
+      </c>
+      <c r="H98">
+        <v>0.08013621733895863</v>
+      </c>
+      <c r="I98">
+        <v>0.3971623891090113</v>
+      </c>
+      <c r="J98">
+        <v>-0.1398239158141492</v>
+      </c>
+      <c r="K98">
+        <v>0.1116676532462758</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.03633252032488347</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.08158971569413948</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.01089067833531957</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.9369654657269939</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.1378840248040812</v>
+      </c>
+      <c r="G99">
+        <v>-0.05749002542178876</v>
+      </c>
+      <c r="H99">
+        <v>0.2065567356828185</v>
+      </c>
+      <c r="I99">
+        <v>0.05828680719592692</v>
+      </c>
+      <c r="J99">
+        <v>0.07345974168163841</v>
+      </c>
+      <c r="K99">
+        <v>-0.06270323382260173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.008118211414184612</v>
+        <v>0.01789574852800735</v>
       </c>
       <c r="C101">
-        <v>0.08203395198111874</v>
+        <v>-0.08021762893705293</v>
       </c>
       <c r="D101">
-        <v>0.05686887444391774</v>
+        <v>-0.04854283606263179</v>
       </c>
       <c r="E101">
-        <v>-0.003692921048052525</v>
+        <v>-0.01733062025927818</v>
       </c>
       <c r="F101">
-        <v>-0.02484870301390774</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03461475581127321</v>
+      </c>
+      <c r="G101">
+        <v>0.02524785725048852</v>
+      </c>
+      <c r="H101">
+        <v>-0.1820448645780616</v>
+      </c>
+      <c r="I101">
+        <v>0.03676557108668631</v>
+      </c>
+      <c r="J101">
+        <v>0.2532402074708502</v>
+      </c>
+      <c r="K101">
+        <v>-0.002661063956754752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.0006175180923971858</v>
+        <v>0.0006748958157508122</v>
       </c>
       <c r="C102">
-        <v>0.01183078699946854</v>
+        <v>-0.005450333402676354</v>
       </c>
       <c r="D102">
-        <v>-0.001819346815192035</v>
+        <v>0.001939888844625319</v>
       </c>
       <c r="E102">
-        <v>0.01446899528059522</v>
+        <v>-0.002887147913846601</v>
       </c>
       <c r="F102">
-        <v>-0.0187585891940442</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.008021795945724979</v>
+      </c>
+      <c r="G102">
+        <v>-0.003461800016430744</v>
+      </c>
+      <c r="H102">
+        <v>-0.004493037598165753</v>
+      </c>
+      <c r="I102">
+        <v>-0.0008107886581580767</v>
+      </c>
+      <c r="J102">
+        <v>0.004519513905573171</v>
+      </c>
+      <c r="K102">
+        <v>-0.02066586850135388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
